--- a/sales data/2018.xlsx
+++ b/sales data/2018.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028597A3-75DE-4EC2-9FEA-CB6085DE41D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36E7070-C797-44DC-B52B-93F93C7456A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -418,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -456,23 +456,8 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -769,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -782,10 +767,10 @@
     <col min="3" max="3" width="16.375" customWidth="1"/>
     <col min="4" max="4" width="16.5" customWidth="1"/>
     <col min="5" max="5" width="20.875" customWidth="1"/>
-    <col min="6" max="7" width="9" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
         <v>22</v>
       </c>
@@ -799,7 +784,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -815,9 +800,8 @@
       <c r="E2" s="10">
         <v>1560128</v>
       </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -827,15 +811,14 @@
       <c r="C3" s="9">
         <v>9236876</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="13">
         <v>13823428</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="13">
         <v>26034456</v>
       </c>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -851,9 +834,8 @@
       <c r="E4" s="11">
         <v>6839107</v>
       </c>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -869,9 +851,8 @@
       <c r="E5" s="11">
         <v>99112912</v>
       </c>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -887,9 +868,8 @@
       <c r="E6" s="11">
         <v>26186394</v>
       </c>
-      <c r="F6" s="14"/>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -905,9 +885,8 @@
       <c r="E7" s="11">
         <v>50402165</v>
       </c>
-      <c r="F7" s="14"/>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -923,9 +902,8 @@
       <c r="E8" s="11">
         <v>492043</v>
       </c>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -935,15 +913,14 @@
       <c r="C9" s="9">
         <v>33542885</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="13">
         <v>40815707</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="13">
         <v>39008271</v>
       </c>
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -959,9 +936,8 @@
       <c r="E10" s="11">
         <v>15799636</v>
       </c>
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -977,9 +953,8 @@
       <c r="E11" s="11">
         <v>486443</v>
       </c>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
@@ -989,15 +964,14 @@
       <c r="C12" s="9">
         <v>85335</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="13">
         <v>1938456</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="13">
         <v>57162</v>
       </c>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1013,27 +987,25 @@
       <c r="E13" s="11">
         <v>25797434</v>
       </c>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="9">
         <v>5776</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="17" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="11">
         <v>17748</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1043,15 +1015,14 @@
       <c r="C15" s="9">
         <v>5660605</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="13">
         <v>99129</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="13">
         <v>12546529</v>
       </c>
-      <c r="F15" s="14"/>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -1067,9 +1038,8 @@
       <c r="E16" s="11">
         <v>6457916</v>
       </c>
-      <c r="F16" s="14"/>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
@@ -1085,27 +1055,25 @@
       <c r="E17" s="11">
         <v>1400910</v>
       </c>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="16">
         <v>1717189</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="12">
         <v>5842185</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -1121,9 +1089,8 @@
       <c r="E19" s="10">
         <v>5789</v>
       </c>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -1139,27 +1106,25 @@
       <c r="E20" s="11">
         <v>2718187</v>
       </c>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="9">
         <v>643003</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="13">
         <v>2635891</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>20</v>
       </c>
@@ -1175,9 +1140,8 @@
       <c r="E22" s="11">
         <v>25671579</v>
       </c>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -1187,13 +1151,12 @@
       <c r="C23" s="8">
         <v>3847221</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="13">
         <v>71777</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="13">
         <v>5078871</v>
       </c>
-      <c r="F23" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
